--- a/WebContent/downloads/data_information_download.xlsx
+++ b/WebContent/downloads/data_information_download.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/wangy70_nih_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy70\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DF1F7B-723A-47DB-B54A-B560074271EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DAAA12-933E-4E49-9F6A-7D4733E19E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DBD3DBA-A8E5-4A79-9222-3EE35BCD0B2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0795432-CEAF-4730-87B1-F220AB364D11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Qlik Format" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Table" sheetId="2" r:id="rId1"/>
+    <sheet name="Qlik Format" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Male </t>
   </si>
   <si>
+    <t>Unknown/Not Reported</t>
+  </si>
+  <si>
     <t>Asain</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Unknown/Not Reported</t>
-  </si>
-  <si>
-    <t>Unknown/Not Reported</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,11 +129,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -151,18 +150,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,9 +185,24 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -199,6 +213,28 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.59999389629810485"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -208,38 +244,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01F1A003-B157-4005-B67F-58970FD9E213}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{357F1E75-A3EF-490B-A330-1A8443E9E1EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,27 +601,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E97289-8A07-459D-8FA7-31B7F5DF8EC7}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A28B5-7022-424A-A4A3-9148DB522E60}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -578,33 +628,33 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
@@ -620,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -629,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
@@ -638,225 +688,225 @@
         <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11">
-        <v>173060</v>
-      </c>
-      <c r="C4" s="11">
-        <v>133970</v>
-      </c>
-      <c r="D4" s="11">
-        <v>190</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2973</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2217</v>
-      </c>
-      <c r="G4" s="11">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>185188</v>
+      </c>
+      <c r="C4" s="4">
+        <v>143278</v>
+      </c>
+      <c r="D4" s="4">
+        <v>196</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3147</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2332</v>
+      </c>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
-        <v>18134</v>
-      </c>
-      <c r="I4" s="11">
-        <v>13963</v>
-      </c>
-      <c r="J4" s="11">
-        <v>29</v>
-      </c>
-      <c r="K4" s="12">
-        <v>344536</v>
+      <c r="H4" s="4">
+        <v>18981</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14601</v>
+      </c>
+      <c r="J4" s="4">
+        <v>31</v>
+      </c>
+      <c r="K4" s="9">
+        <v>367754</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11">
-        <v>7030</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5814</v>
-      </c>
-      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7925</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6478</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>2880</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2238</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="4">
+        <v>2990</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2315</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
-        <v>717</v>
-      </c>
-      <c r="I5" s="11">
-        <v>644</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="4">
+        <v>775</v>
+      </c>
+      <c r="I5" s="4">
+        <v>713</v>
+      </c>
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <v>19323</v>
+      <c r="K5" s="9">
+        <v>21196</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11">
-        <v>885782</v>
-      </c>
-      <c r="C6" s="11">
-        <v>617770</v>
-      </c>
-      <c r="D6" s="11">
-        <v>275</v>
-      </c>
-      <c r="E6" s="11">
-        <v>26282</v>
-      </c>
-      <c r="F6" s="11">
-        <v>18957</v>
-      </c>
-      <c r="G6" s="11">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>948970</v>
+      </c>
+      <c r="C6" s="4">
+        <v>666568</v>
+      </c>
+      <c r="D6" s="4">
+        <v>307</v>
+      </c>
+      <c r="E6" s="4">
+        <v>28094</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20358</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
-        <v>76495</v>
-      </c>
-      <c r="I6" s="11">
-        <v>60430</v>
-      </c>
-      <c r="J6" s="11">
-        <v>102</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1686093</v>
+      <c r="H6" s="4">
+        <v>79612</v>
+      </c>
+      <c r="I6" s="4">
+        <v>63458</v>
+      </c>
+      <c r="J6" s="4">
+        <v>124</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1807491</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3611417</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2964500</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2567</v>
-      </c>
-      <c r="E7" s="11">
-        <v>366722</v>
-      </c>
-      <c r="F7" s="11">
-        <v>277010</v>
-      </c>
-      <c r="G7" s="11">
-        <v>289</v>
-      </c>
-      <c r="H7" s="11">
-        <v>342384</v>
-      </c>
-      <c r="I7" s="11">
-        <v>300686</v>
-      </c>
-      <c r="J7" s="11">
-        <v>528</v>
-      </c>
-      <c r="K7" s="12">
-        <v>7866103</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3874522</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3177095</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2736</v>
+      </c>
+      <c r="E7" s="4">
+        <v>387684</v>
+      </c>
+      <c r="F7" s="4">
+        <v>292865</v>
+      </c>
+      <c r="G7" s="4">
+        <v>306</v>
+      </c>
+      <c r="H7" s="4">
+        <v>361456</v>
+      </c>
+      <c r="I7" s="4">
+        <v>318297</v>
+      </c>
+      <c r="J7" s="4">
+        <v>639</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8415600</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11">
-        <v>352795</v>
-      </c>
-      <c r="C8" s="11">
-        <v>294327</v>
-      </c>
-      <c r="D8" s="11">
-        <v>553</v>
-      </c>
-      <c r="E8" s="11">
-        <v>430940</v>
-      </c>
-      <c r="F8" s="11">
-        <v>340346</v>
-      </c>
-      <c r="G8" s="11">
-        <v>429</v>
-      </c>
-      <c r="H8" s="11">
-        <v>348287</v>
-      </c>
-      <c r="I8" s="11">
-        <v>328708</v>
-      </c>
-      <c r="J8" s="11">
-        <v>6426</v>
-      </c>
-      <c r="K8" s="12">
-        <v>2102811</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>401938</v>
+      </c>
+      <c r="C8" s="4">
+        <v>329685</v>
+      </c>
+      <c r="D8" s="4">
+        <v>598</v>
+      </c>
+      <c r="E8" s="4">
+        <v>461355</v>
+      </c>
+      <c r="F8" s="4">
+        <v>364055</v>
+      </c>
+      <c r="G8" s="4">
+        <v>439</v>
+      </c>
+      <c r="H8" s="4">
+        <v>366734</v>
+      </c>
+      <c r="I8" s="4">
+        <v>346712</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7035</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2278551</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
-        <v>5030084</v>
-      </c>
-      <c r="C9" s="12">
-        <v>4016381</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3585</v>
-      </c>
-      <c r="E9" s="12">
-        <v>829797</v>
-      </c>
-      <c r="F9" s="12">
-        <v>640768</v>
-      </c>
-      <c r="G9" s="12">
-        <v>718</v>
-      </c>
-      <c r="H9" s="12">
-        <v>786017</v>
-      </c>
-      <c r="I9" s="12">
-        <v>704431</v>
-      </c>
-      <c r="J9" s="12">
-        <v>7085</v>
-      </c>
-      <c r="K9" s="12">
-        <v>12018866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F12" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="B9" s="9">
+        <v>5418543</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4323104</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3837</v>
+      </c>
+      <c r="E9" s="9">
+        <v>883270</v>
+      </c>
+      <c r="F9" s="9">
+        <v>681925</v>
+      </c>
+      <c r="G9" s="9">
+        <v>745</v>
+      </c>
+      <c r="H9" s="9">
+        <v>827558</v>
+      </c>
+      <c r="I9" s="9">
+        <v>743781</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7829</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12890592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -866,11 +916,12 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD9BA66-80DC-45B8-B07D-66C6C5522C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0569732F-7185-43BE-A7AF-A7A175FD8768}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -879,376 +930,377 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15">
+        <v>328662</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5479</v>
+      </c>
+      <c r="D3" s="15">
+        <v>33613</v>
+      </c>
+      <c r="E3" s="15">
+        <v>367754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17">
+        <v>185188</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3147</v>
+      </c>
+      <c r="D4" s="17">
+        <v>18981</v>
+      </c>
+      <c r="E4" s="13">
+        <v>207316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17">
+        <v>143278</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2332</v>
+      </c>
+      <c r="D5" s="17">
+        <v>14601</v>
+      </c>
+      <c r="E5" s="13">
+        <v>160211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17">
+        <v>196</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1615845</v>
+      </c>
+      <c r="C7" s="15">
+        <v>48452</v>
+      </c>
+      <c r="D7" s="15">
+        <v>143194</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1807491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17">
+        <v>948970</v>
+      </c>
+      <c r="C8" s="17">
+        <v>28094</v>
+      </c>
+      <c r="D8" s="17">
+        <v>79612</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1056676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17">
+        <v>666568</v>
+      </c>
+      <c r="C9" s="17">
+        <v>20358</v>
+      </c>
+      <c r="D9" s="17">
+        <v>63458</v>
+      </c>
+      <c r="E9" s="13">
+        <v>750384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
+        <v>307</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>124</v>
+      </c>
+      <c r="E10" s="13">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>14403</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5305</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1488</v>
+      </c>
+      <c r="E11" s="15">
+        <v>21196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17">
+        <v>7925</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2990</v>
+      </c>
+      <c r="D12" s="17">
+        <v>775</v>
+      </c>
+      <c r="E12" s="13">
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17">
+        <v>6478</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2315</v>
+      </c>
+      <c r="D13" s="17">
+        <v>713</v>
+      </c>
+      <c r="E13" s="13">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6">
-        <v>307220</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5190</v>
-      </c>
-      <c r="D3" s="6">
-        <v>32126</v>
-      </c>
-      <c r="E3" s="6">
-        <v>344536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4">
-        <v>173060</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2973</v>
-      </c>
-      <c r="D4" s="4">
-        <v>18134</v>
-      </c>
-      <c r="E4" s="4">
-        <v>194167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B15" s="15">
+        <v>732221</v>
+      </c>
+      <c r="C15" s="15">
+        <v>825849</v>
+      </c>
+      <c r="D15" s="15">
+        <v>720481</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2278551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4">
-        <v>133970</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2217</v>
-      </c>
-      <c r="D5" s="4">
-        <v>13963</v>
-      </c>
-      <c r="E5" s="4">
-        <v>150150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B16" s="17">
+        <v>401938</v>
+      </c>
+      <c r="C16" s="17">
+        <v>461355</v>
+      </c>
+      <c r="D16" s="17">
+        <v>366734</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1230027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
-        <v>190</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1503827</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45239</v>
-      </c>
-      <c r="D7" s="6">
-        <v>137027</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1686093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
-        <v>885782</v>
-      </c>
-      <c r="C8" s="4">
-        <v>26282</v>
-      </c>
-      <c r="D8" s="4">
-        <v>76495</v>
-      </c>
-      <c r="E8" s="4">
-        <v>988559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B17" s="17">
+        <v>329685</v>
+      </c>
+      <c r="C17" s="17">
+        <v>364055</v>
+      </c>
+      <c r="D17" s="17">
+        <v>346712</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1040452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17">
+        <v>598</v>
+      </c>
+      <c r="C18" s="17">
+        <v>439</v>
+      </c>
+      <c r="D18" s="17">
+        <v>7035</v>
+      </c>
+      <c r="E18" s="13">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15">
+        <v>7054353</v>
+      </c>
+      <c r="C19" s="15">
+        <v>680855</v>
+      </c>
+      <c r="D19" s="15">
+        <v>680392</v>
+      </c>
+      <c r="E19" s="15">
+        <v>8415600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>617770</v>
-      </c>
-      <c r="C9" s="4">
-        <v>18957</v>
-      </c>
-      <c r="D9" s="4">
-        <v>60430</v>
-      </c>
-      <c r="E9" s="4">
-        <v>697157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B20" s="17">
+        <v>3874522</v>
+      </c>
+      <c r="C20" s="17">
+        <v>387684</v>
+      </c>
+      <c r="D20" s="17">
+        <v>361456</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4623662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
-        <v>275</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>102</v>
-      </c>
-      <c r="E10" s="4">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>12844</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5118</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1361</v>
-      </c>
-      <c r="E11" s="6">
-        <v>19323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7030</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2880</v>
-      </c>
-      <c r="D12" s="4">
-        <v>717</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5814</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2238</v>
-      </c>
-      <c r="D13" s="4">
-        <v>644</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <v>647675</v>
-      </c>
-      <c r="C15" s="6">
-        <v>771715</v>
-      </c>
-      <c r="D15" s="6">
-        <v>683421</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2102811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>352795</v>
-      </c>
-      <c r="C16" s="4">
-        <v>430940</v>
-      </c>
-      <c r="D16" s="4">
-        <v>348287</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1132022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>294327</v>
-      </c>
-      <c r="C17" s="4">
-        <v>340346</v>
-      </c>
-      <c r="D17" s="4">
-        <v>328708</v>
-      </c>
-      <c r="E17" s="4">
-        <v>963381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
-        <v>553</v>
-      </c>
-      <c r="C18" s="4">
-        <v>429</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6426</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6">
-        <v>6578484</v>
-      </c>
-      <c r="C19" s="6">
-        <v>644021</v>
-      </c>
-      <c r="D19" s="6">
-        <v>643598</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7866103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3611417</v>
-      </c>
-      <c r="C20" s="4">
-        <v>366722</v>
-      </c>
-      <c r="D20" s="4">
-        <v>342384</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4320523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2964500</v>
-      </c>
-      <c r="C21" s="4">
-        <v>277010</v>
-      </c>
-      <c r="D21" s="4">
-        <v>300686</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3542196</v>
+      <c r="B21" s="17">
+        <v>3177095</v>
+      </c>
+      <c r="C21" s="17">
+        <v>292865</v>
+      </c>
+      <c r="D21" s="17">
+        <v>318297</v>
+      </c>
+      <c r="E21" s="13">
+        <v>3788257</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2567</v>
-      </c>
-      <c r="C22" s="4">
-        <v>289</v>
-      </c>
-      <c r="D22" s="4">
-        <v>528</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3384</v>
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2736</v>
+      </c>
+      <c r="C22" s="17">
+        <v>306</v>
+      </c>
+      <c r="D22" s="17">
+        <v>639</v>
+      </c>
+      <c r="E22" s="13">
+        <v>3681</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/downloads/data_information_download.xlsx
+++ b/WebContent/downloads/data_information_download.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy70\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DAAA12-933E-4E49-9F6A-7D4733E19E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B7320E-F3E4-4F6C-9A02-65A94E170C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0795432-CEAF-4730-87B1-F220AB364D11}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26C36F0A-5BD5-4996-B5EC-C60A2B87AB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t xml:space="preserve">Ethnic Categories </t>
   </si>
@@ -65,7 +65,7 @@
     <t>Unknown/Not Reported</t>
   </si>
   <si>
-    <t>Asain</t>
+    <t>Asian</t>
   </si>
   <si>
     <t>Native Hawaiian or Other Pacific Islander</t>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Unknown/Not Reported Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t xml:space="preserve">    Female</t>
@@ -250,23 +247,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -290,7 +287,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{357F1E75-A3EF-490B-A330-1A8443E9E1EE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E12B4CC-8C4D-46B2-8892-D879AF802A9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A28B5-7022-424A-A4A3-9148DB522E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6CA29-A37D-45A1-ADD9-FE08D48471FF}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,34 +625,34 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -663,250 +660,250 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
-        <v>185188</v>
-      </c>
-      <c r="C4" s="4">
-        <v>143278</v>
-      </c>
-      <c r="D4" s="4">
-        <v>196</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3147</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2332</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="B4" s="6">
+        <v>194155</v>
+      </c>
+      <c r="C4" s="6">
+        <v>150806</v>
+      </c>
+      <c r="D4" s="6">
+        <v>171</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3292</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2454</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>18981</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14601</v>
-      </c>
-      <c r="J4" s="4">
-        <v>31</v>
-      </c>
-      <c r="K4" s="9">
-        <v>367754</v>
+      <c r="H4" s="6">
+        <v>18394</v>
+      </c>
+      <c r="I4" s="6">
+        <v>14109</v>
+      </c>
+      <c r="J4" s="6">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7">
+        <v>383406</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
-        <v>7925</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6478</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="6">
+        <v>7669</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6331</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>2990</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2315</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="6">
+        <v>3188</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2442</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>775</v>
-      </c>
-      <c r="I5" s="4">
-        <v>713</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="H5" s="6">
+        <v>753</v>
+      </c>
+      <c r="I5" s="6">
+        <v>691</v>
+      </c>
+      <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
-        <v>21196</v>
+      <c r="K5" s="7">
+        <v>21074</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
-        <v>948970</v>
-      </c>
-      <c r="C6" s="4">
-        <v>666568</v>
-      </c>
-      <c r="D6" s="4">
-        <v>307</v>
-      </c>
-      <c r="E6" s="4">
-        <v>28094</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20358</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="B6" s="6">
+        <v>980474</v>
+      </c>
+      <c r="C6" s="6">
+        <v>690100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>242</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30810</v>
+      </c>
+      <c r="F6" s="6">
+        <v>22370</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>79612</v>
-      </c>
-      <c r="I6" s="4">
-        <v>63458</v>
-      </c>
-      <c r="J6" s="4">
-        <v>124</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1807491</v>
+      <c r="H6" s="6">
+        <v>78534</v>
+      </c>
+      <c r="I6" s="6">
+        <v>62572</v>
+      </c>
+      <c r="J6" s="6">
+        <v>117</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1865219</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <v>3874522</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3177095</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2736</v>
-      </c>
-      <c r="E7" s="4">
-        <v>387684</v>
-      </c>
-      <c r="F7" s="4">
-        <v>292865</v>
-      </c>
-      <c r="G7" s="4">
-        <v>306</v>
-      </c>
-      <c r="H7" s="4">
-        <v>361456</v>
-      </c>
-      <c r="I7" s="4">
-        <v>318297</v>
-      </c>
-      <c r="J7" s="4">
-        <v>639</v>
-      </c>
-      <c r="K7" s="9">
-        <v>8415600</v>
+      <c r="B7" s="6">
+        <v>3947132</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3241642</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2060</v>
+      </c>
+      <c r="E7" s="6">
+        <v>406425</v>
+      </c>
+      <c r="F7" s="6">
+        <v>307400</v>
+      </c>
+      <c r="G7" s="6">
+        <v>144</v>
+      </c>
+      <c r="H7" s="6">
+        <v>342745</v>
+      </c>
+      <c r="I7" s="6">
+        <v>300632</v>
+      </c>
+      <c r="J7" s="6">
+        <v>533</v>
+      </c>
+      <c r="K7" s="7">
+        <v>8548713</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
-        <v>401938</v>
-      </c>
-      <c r="C8" s="4">
-        <v>329685</v>
-      </c>
-      <c r="D8" s="4">
-        <v>598</v>
-      </c>
-      <c r="E8" s="4">
-        <v>461355</v>
-      </c>
-      <c r="F8" s="4">
-        <v>364055</v>
-      </c>
-      <c r="G8" s="4">
-        <v>439</v>
-      </c>
-      <c r="H8" s="4">
-        <v>366734</v>
-      </c>
-      <c r="I8" s="4">
-        <v>346712</v>
-      </c>
-      <c r="J8" s="4">
-        <v>7035</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2278551</v>
+      <c r="B8" s="6">
+        <v>415091</v>
+      </c>
+      <c r="C8" s="6">
+        <v>342359</v>
+      </c>
+      <c r="D8" s="6">
+        <v>585</v>
+      </c>
+      <c r="E8" s="6">
+        <v>480575</v>
+      </c>
+      <c r="F8" s="6">
+        <v>378174</v>
+      </c>
+      <c r="G8" s="6">
+        <v>260</v>
+      </c>
+      <c r="H8" s="6">
+        <v>364641</v>
+      </c>
+      <c r="I8" s="6">
+        <v>345110</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6463</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2333258</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
-        <v>5418543</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4323104</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3837</v>
-      </c>
-      <c r="E9" s="9">
-        <v>883270</v>
-      </c>
-      <c r="F9" s="9">
-        <v>681925</v>
-      </c>
-      <c r="G9" s="9">
-        <v>745</v>
-      </c>
-      <c r="H9" s="9">
-        <v>827558</v>
-      </c>
-      <c r="I9" s="9">
-        <v>743781</v>
-      </c>
-      <c r="J9" s="9">
-        <v>7829</v>
-      </c>
-      <c r="K9" s="9">
-        <v>12890592</v>
+      <c r="B9" s="7">
+        <v>5544521</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4431238</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3058</v>
+      </c>
+      <c r="E9" s="7">
+        <v>924290</v>
+      </c>
+      <c r="F9" s="7">
+        <v>712840</v>
+      </c>
+      <c r="G9" s="7">
+        <v>404</v>
+      </c>
+      <c r="H9" s="7">
+        <v>805067</v>
+      </c>
+      <c r="I9" s="7">
+        <v>723114</v>
+      </c>
+      <c r="J9" s="7">
+        <v>7138</v>
+      </c>
+      <c r="K9" s="7">
+        <v>13151670</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K14" s="7"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -921,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0569732F-7185-43BE-A7AF-A7A175FD8768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05F71D-DD44-4D9C-977F-FEC607124CDF}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,70 +962,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="15">
-        <v>328662</v>
+        <v>345132</v>
       </c>
       <c r="C3" s="15">
-        <v>5479</v>
+        <v>5746</v>
       </c>
       <c r="D3" s="15">
-        <v>33613</v>
+        <v>32528</v>
       </c>
       <c r="E3" s="15">
-        <v>367754</v>
+        <v>383406</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="17">
-        <v>185188</v>
+        <v>194155</v>
       </c>
       <c r="C4" s="17">
-        <v>3147</v>
+        <v>3292</v>
       </c>
       <c r="D4" s="17">
-        <v>18981</v>
+        <v>18394</v>
       </c>
       <c r="E4" s="13">
-        <v>207316</v>
+        <v>215841</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="17">
-        <v>143278</v>
+        <v>150806</v>
       </c>
       <c r="C5" s="17">
-        <v>2332</v>
+        <v>2454</v>
       </c>
       <c r="D5" s="17">
-        <v>14601</v>
+        <v>14109</v>
       </c>
       <c r="E5" s="13">
-        <v>160211</v>
+        <v>167369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="17">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="17">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="13">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1036,67 +1033,67 @@
         <v>11</v>
       </c>
       <c r="B7" s="15">
-        <v>1615845</v>
+        <v>1670816</v>
       </c>
       <c r="C7" s="15">
-        <v>48452</v>
+        <v>53180</v>
       </c>
       <c r="D7" s="15">
-        <v>143194</v>
+        <v>141223</v>
       </c>
       <c r="E7" s="15">
-        <v>1807491</v>
+        <v>1865219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="17">
-        <v>948970</v>
+        <v>980474</v>
       </c>
       <c r="C8" s="17">
-        <v>28094</v>
+        <v>30810</v>
       </c>
       <c r="D8" s="17">
-        <v>79612</v>
+        <v>78534</v>
       </c>
       <c r="E8" s="13">
-        <v>1056676</v>
+        <v>1089818</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="17">
-        <v>666568</v>
+        <v>690100</v>
       </c>
       <c r="C9" s="17">
-        <v>20358</v>
+        <v>22370</v>
       </c>
       <c r="D9" s="17">
-        <v>63458</v>
+        <v>62572</v>
       </c>
       <c r="E9" s="13">
-        <v>750384</v>
+        <v>775042</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="17">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
       </c>
       <c r="D10" s="17">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13">
-        <v>431</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,55 +1101,55 @@
         <v>10</v>
       </c>
       <c r="B11" s="15">
-        <v>14403</v>
+        <v>14000</v>
       </c>
       <c r="C11" s="15">
-        <v>5305</v>
+        <v>5630</v>
       </c>
       <c r="D11" s="15">
-        <v>1488</v>
+        <v>1444</v>
       </c>
       <c r="E11" s="15">
-        <v>21196</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="17">
-        <v>7925</v>
+        <v>7669</v>
       </c>
       <c r="C12" s="17">
-        <v>2990</v>
+        <v>3188</v>
       </c>
       <c r="D12" s="17">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E12" s="13">
-        <v>11690</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="17">
-        <v>6478</v>
+        <v>6331</v>
       </c>
       <c r="C13" s="17">
-        <v>2315</v>
+        <v>2442</v>
       </c>
       <c r="D13" s="17">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="E13" s="13">
-        <v>9506</v>
+        <v>9464</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="17">
         <v>0</v>
@@ -1172,67 +1169,67 @@
         <v>13</v>
       </c>
       <c r="B15" s="15">
-        <v>732221</v>
+        <v>758035</v>
       </c>
       <c r="C15" s="15">
-        <v>825849</v>
+        <v>859009</v>
       </c>
       <c r="D15" s="15">
-        <v>720481</v>
+        <v>716214</v>
       </c>
       <c r="E15" s="15">
-        <v>2278551</v>
+        <v>2333258</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="17">
-        <v>401938</v>
+        <v>415091</v>
       </c>
       <c r="C16" s="17">
-        <v>461355</v>
+        <v>480575</v>
       </c>
       <c r="D16" s="17">
-        <v>366734</v>
+        <v>364641</v>
       </c>
       <c r="E16" s="13">
-        <v>1230027</v>
+        <v>1260307</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="17">
-        <v>329685</v>
+        <v>342359</v>
       </c>
       <c r="C17" s="17">
-        <v>364055</v>
+        <v>378174</v>
       </c>
       <c r="D17" s="17">
-        <v>346712</v>
+        <v>345110</v>
       </c>
       <c r="E17" s="13">
-        <v>1040452</v>
+        <v>1065643</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="17">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C18" s="17">
-        <v>439</v>
+        <v>260</v>
       </c>
       <c r="D18" s="17">
-        <v>7035</v>
+        <v>6463</v>
       </c>
       <c r="E18" s="13">
-        <v>8072</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1240,67 +1237,67 @@
         <v>12</v>
       </c>
       <c r="B19" s="15">
-        <v>7054353</v>
+        <v>7190834</v>
       </c>
       <c r="C19" s="15">
-        <v>680855</v>
+        <v>713969</v>
       </c>
       <c r="D19" s="15">
-        <v>680392</v>
+        <v>643910</v>
       </c>
       <c r="E19" s="15">
-        <v>8415600</v>
+        <v>8548713</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="17">
-        <v>3874522</v>
+        <v>3947132</v>
       </c>
       <c r="C20" s="17">
-        <v>387684</v>
+        <v>406425</v>
       </c>
       <c r="D20" s="17">
-        <v>361456</v>
+        <v>342745</v>
       </c>
       <c r="E20" s="13">
-        <v>4623662</v>
+        <v>4696302</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="17">
-        <v>3177095</v>
+        <v>3241642</v>
       </c>
       <c r="C21" s="17">
-        <v>292865</v>
+        <v>307400</v>
       </c>
       <c r="D21" s="17">
-        <v>318297</v>
+        <v>300632</v>
       </c>
       <c r="E21" s="13">
-        <v>3788257</v>
+        <v>3849674</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="17">
-        <v>2736</v>
+        <v>2060</v>
       </c>
       <c r="C22" s="17">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="D22" s="17">
-        <v>639</v>
+        <v>533</v>
       </c>
       <c r="E22" s="13">
-        <v>3681</v>
+        <v>2737</v>
       </c>
     </row>
   </sheetData>
